--- a/MVandebroek/TAKEN/TASK1/1. FILES/responses_test_TAAK1.xlsx
+++ b/MVandebroek/TAKEN/TASK1/1. FILES/responses_test_TAAK1.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0118298\OneDrive\Projects\MVandebroek\TAKEN\TASK0\1. FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09B0BBE-50F1-486A-8347-1E74E8A74A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EECF92-3971-4682-925F-B285CB52D8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="3252" windowWidth="19320" windowHeight="7212"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="TASK0-116082023.downloadlong (1" sheetId="1" r:id="rId1"/>
+    <sheet name="TASK0-Your responses.downloadlo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -70,19 +70,13 @@
     <t>Please provide the answer to Question 1.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
   </si>
   <si>
-    <t>Marked</t>
+    <t>Posted</t>
   </si>
   <si>
     <t>Please provide the answer to Question 2.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
   </si>
   <si>
-    <t>0.861</t>
-  </si>
-  <si>
     <t>Please provide the answer to Question 3.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
-  </si>
-  <si>
-    <t>0.587</t>
   </si>
   <si>
     <t>Additional Content</t>
@@ -569,9 +563,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -929,13 +922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="130.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -991,8 +980,8 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1">
-        <v>1357</v>
+      <c r="G2">
+        <v>1.357</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1023,8 +1012,8 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="G3">
+        <v>0.86099999999999999</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1053,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0.58699999999999997</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1082,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/MVandebroek/TAKEN/TASK1/1. FILES/responses_test_TAAK1.xlsx
+++ b/MVandebroek/TAKEN/TASK1/1. FILES/responses_test_TAAK1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0118298\OneDrive\Projects\MVandebroek\TAKEN\TASK0\1. FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0118298\OneDrive\Projects\MVandebroek\TAKEN\TASK1\1. FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EECF92-3971-4682-925F-B285CB52D8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ADB1985-A500-48FD-824A-C5BD7B92493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="2892" yWindow="1500" windowWidth="18408" windowHeight="8880"/>
   </bookViews>
   <sheets>
-    <sheet name="TASK0-Your responses.downloadlo" sheetId="1" r:id="rId1"/>
+    <sheet name="TASK1-your responses.downloadlo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -70,7 +70,7 @@
     <t>Please provide the answer to Question 1.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
   </si>
   <si>
-    <t>Posted</t>
+    <t>Marked</t>
   </si>
   <si>
     <t>Please provide the answer to Question 2.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
@@ -981,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>1.357</v>
+        <v>1.07</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>0.86099999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>18</v>
       </c>
       <c r="G4">
-        <v>0.58699999999999997</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="H4">
         <v>1</v>

--- a/MVandebroek/TAKEN/TASK1/1. FILES/responses_test_TAAK1.xlsx
+++ b/MVandebroek/TAKEN/TASK1/1. FILES/responses_test_TAAK1.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0118298\OneDrive\Projects\MVandebroek\TAKEN\TASK1\1. FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ADB1985-A500-48FD-824A-C5BD7B92493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B020FB-37B5-4991-96F9-90F3DE317768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="1500" windowWidth="18408" windowHeight="8880"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="20664" windowHeight="10812"/>
   </bookViews>
   <sheets>
-    <sheet name="TASK1-your responses.downloadlo" sheetId="1" r:id="rId1"/>
+    <sheet name="responses_test_TAAK1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -70,13 +70,16 @@
     <t>Please provide the answer to Question 1.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
   </si>
   <si>
-    <t>Marked</t>
+    <t>Posted</t>
   </si>
   <si>
     <t>Please provide the answer to Question 2.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
   </si>
   <si>
     <t>Please provide the answer to Question 3.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
+  </si>
+  <si>
+    <t>Please provide the answer to Question 4.Only respond with a numeric value rounded to three decimal places. Use a point (.) as decimal separator if needed.</t>
   </si>
   <si>
     <t>Additional Content</t>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -981,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>1.07</v>
+        <v>1.129</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1013,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>0.67</v>
+        <v>146.70699999999999</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1045,7 +1048,7 @@
         <v>18</v>
       </c>
       <c r="G4">
-        <v>0.82299999999999995</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1070,8 +1073,40 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
       <c r="F5" t="s">
         <v>19</v>
+      </c>
+      <c r="G5">
+        <v>2.468</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
